--- a/biology/Botanique/Salvia_argentea/Salvia_argentea.xlsx
+++ b/biology/Botanique/Salvia_argentea/Salvia_argentea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Sauge argentée (Salvia argentea) est une plante herbacée, annuelle ou bisannuelle de la famille des Lamiacées. Originaire d'Afrique du Nord, elle s'adapte bien à un climat tempéré. Elle forme une rosette de feuilles la première année, et fleurit la seconde année.
 Les feuilles sont recouvertes d'un duvet argenté, très doux au toucher, qui rend cette sauge populaire auprès des horticulteurs.
@@ -515,8 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractéristiques
-Organes reproducteurs
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : blanc
 Période de floraison : juin-juillet
 Inflorescence : glomérules spiciformes
@@ -555,7 +572,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante n'est pas seulement décorative, puisqu'on lui attribue des propriétés aromatiques.
 Sur les autres projets Wikimedia :
